--- a/data/Coelemu.xlsx
+++ b/data/Coelemu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/12/2021</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154246909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159488272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Forestal León</t>
+          <t>Regularización Planta Forestal León</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Energía León S.A.</t>
+          <t>Forestal León Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>06/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151326103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154246909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Declaración de Impacto Ambiental Forestal León</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Energía León S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>324020</v>
+        <v>18000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>08/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151326103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9903</v>
+        <v>324020</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Bioenergía Ñuble</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Planta Bio-E Ñuble I SpA</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>44130</v>
+        <v>9903</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/08/2016</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131716922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/07/2016</t>
+          <t>23/08/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131716922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Centro de Cultivo. Oeste de Estero Perales. Pert 211 081 058</t>
+          <t>Planta Bioenergía Ñuble</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inversiones Pelícano S.A.</t>
+          <t>Planta Bio-E Ñuble I SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2600</v>
+        <v>44130</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08/02/2016</t>
+          <t>20/07/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131130667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Central de Cogeneración Coelemu</t>
+          <t>Centro de Cultivo. Oeste de Estero Perales. Pert 211 081 058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Energía León S.A.</t>
+          <t>Inversiones Pelícano S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15000</v>
+        <v>2600</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>08/02/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6765634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131130667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>06/03/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6666074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6765634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Central de Cogeneración Coelemu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Energía León S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>06/03/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6666074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Coelemu (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1128895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al mar de los efluentes del CFI Nueva Aldea</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Coelemu (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>60000</v>
+        <v>2300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/11/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1133446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1128895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03/10/2005</t>
+          <t>08/11/2005</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1083455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1133446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas De Coelemu (e-seia)</t>
+          <t>Sistema de Conducción y Descarga al mar de los efluentes del CFI Nueva Aldea</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>03/10/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=906367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1083455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas De Coelemu (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=906367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Coelemu</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/02/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=256598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento de Agua Potable de Coelemu</t>
+          <t>Plan Regulador Comunal (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Ilustre Municipalidad de Coelemu</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>18/02/2004</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=256598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción Cabañas Turísticas Ribera del Itata</t>
+          <t>Mejoramiento Sistema de Tratamiento de Agua Potable de Coelemu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Leontina Barriga García</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>740</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/09/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Calidad de Agua Potable de Coelemu</t>
+          <t>Construcción Cabañas Turísticas Ribera del Itata</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Leontina Barriga García</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/04/2000</t>
+          <t>04/09/2001</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Villa El Conquistador</t>
+          <t>Mejoramiento Calidad de Agua Potable de Coelemu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Comité de Allegados Buena Esperanza de Coelemu</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1580</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/10/1999</t>
+          <t>20/04/2000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Industria Vitivinícola</t>
+          <t>Villa El Conquistador</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Viña del Alba, Agrícola Guarilihue S.A.</t>
+          <t>Comité de Allegados Buena Esperanza de Coelemu</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/10/1999</t>
+          <t>29/10/1999</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>236 Viviendas Básicas de Coelemu</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Industria Vitivinícola</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Empresa Constructora Adriana Méndez y Cia. Ltda.</t>
+          <t>Viña del Alba, Agrícola Guarilihue S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/08/1999</t>
+          <t>19/10/1999</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Estación de Servicio Coelemu</t>
+          <t>236 Viviendas Básicas de Coelemu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Manuel Eduardo Contreras Gutiérrez</t>
+          <t>Empresa Constructora Adriana Méndez y Cia. Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>1800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/04/1999</t>
+          <t>04/08/1999</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,43 +2632,91 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Estación de Servicio Coelemu</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Manuel Eduardo Contreras Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>07/04/1999</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1883&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Coelemu</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Escuela de Concentración Coeducacional Sector Tropezón</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Coelemu</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>800</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>07/07/1998</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1210&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Coelemu</t>
         </is>

--- a/data/Coelemu.xlsx
+++ b/data/Coelemu.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coelemu.xlsx
+++ b/data/Coelemu.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
